--- a/pred_ohlcv/54_21/2020-01-25 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FNB ohlcv.xlsx
@@ -8634,7 +8634,7 @@
         <v>-29100742.52866203</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-32287321.27896203</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-32738695.29096203</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-32738695.29096203</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-34492352.25896203</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-34495593.06846203</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-34495038.06846203</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-34583926.06846203</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-34621167.73176203</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-34665845.68456203</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-34684489.62856203</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-34385460.76426202</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-35034139.23086202</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-21080257.19086202</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-21887256.59181494</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-18553741.70461494</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15173152.54902186</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-20385077.40684643</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-20772845.40754643</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-21522162.41214643</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-28975446.98794643</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-28048107.63994643</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-29039906.75744643</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-28587554.50084643</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-28219325.61644643</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-29751750.02394643</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-29875917.70834643</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-31726447.75354643</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-31631063.09464643</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-34377720.67954643</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-34106272.56864643</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-34482066.51754643</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-34999553.84594643</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-35050168.06184643</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-33549309.57524642</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-32549075.57524642</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-32549075.57524642</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-32563673.54534642</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-32563673.54534642</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-32344772.84494643</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-9351579.652154252</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-4682001.154499593</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-7684949.777399593</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-7010484.32268699</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7495978.28518699</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1982144.39358699</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FNB ohlcv.xlsx
@@ -8634,7 +8634,7 @@
         <v>-29100742.52866203</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-32287321.27896203</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-32738695.29096203</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-32738695.29096203</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-34492352.25896203</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-34495593.06846203</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-34495038.06846203</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-34583926.06846203</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-34621167.73176203</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-34665845.68456203</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-34684489.62856203</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-34642540.75456203</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-34642540.75456203</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-34782786.91336203</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-34782453.91336203</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-34783999.20736203</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-34716629.88486203</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-21080257.19086202</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-21887256.59181494</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-18553741.70461494</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15173152.54902186</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-20385077.40684643</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-20772845.40754643</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-21522162.41214643</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-28975446.98794643</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-28048107.63994643</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-29039906.75744643</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-28587554.50084643</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-28219325.61644643</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-29751750.02394643</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-29875917.70834643</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-31726447.75354643</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-31631063.09464643</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-34377720.67954643</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-34106272.56864643</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-34482066.51754643</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-34999553.84594643</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-35050168.06184643</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-33549309.57524642</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-32549075.57524642</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-32549075.57524642</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-32563673.54534642</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-32563673.54534642</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-32344772.84494643</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-9351579.652154252</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-9878883.154099593</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-4682001.154499593</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-7684949.777399593</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-7010484.32268699</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7495978.28518699</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1982144.39358699</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
